--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1745.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1745.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.102648600276699</v>
+        <v>0.8165242075920105</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>0.7612819671630859</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.701229240145963</v>
+        <v>1.527166604995728</v>
       </c>
       <c r="E1">
-        <v>1.237177090900447</v>
+        <v>0.9299272298812866</v>
       </c>
     </row>
   </sheetData>
